--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>2016/10/21+2016/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,16 +293,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,135 +621,156 @@
     <col min="5" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>3.8668981481481478E-2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="5">
         <v>42652</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>42653</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>3.5335648148148151E-2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>42654</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.7986111111111109E-2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>42655</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3.1053240740740742E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>42656</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3.0104166666666668E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>42657</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2.8703703703703703E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>42660</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5.0821759259259254E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>42661</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>2.3645833333333335E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>42662</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3.2638888888888891E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>42663</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
@@ -750,407 +783,407 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>42668</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3.125E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>42669</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1.8043981481481484E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>42670</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3.1666666666666669E-2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>42671</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2.0671296296296295E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>42674</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
+      <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>5.8078703703703709E-2</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>42675</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>1.8020833333333333E-2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>42676</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1.4548611111111111E-2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>42677</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>3.8090277777777778E-2</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>42678</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2.7754629629629629E-2</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>42681</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
+      <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>3.8865740740740742E-2</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>42682</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>2.7222222222222228E-2</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>42683</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
+      <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>42684</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>1.1493055555555555E-2</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>42685</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
+      <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>1.4722222222222222E-2</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>42688</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>1.9907407407407408E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>42689</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
+      <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1.6562500000000001E-2</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>42690</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>42691</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>42692</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>42695</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>42696</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>4.7916666666666663E-2</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>42697</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>42698</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>42699</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
+      <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>3.125E-2</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>42702</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
+      <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>42703</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>42704</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
+      <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>42705</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
+      <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>42706</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
+      <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>3.4027777777777775E-2</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>42709</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
+      <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>7.6388888888888886E-3</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>42710</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
+      <c r="A49" s="6"/>
       <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>1.3194444444444444E-2</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>42711</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
+      <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>42712</v>
       </c>
     </row>

--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,14 @@
   </si>
   <si>
     <t>2016/10/21+2016/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -744,6 +752,9 @@
       <c r="E9" s="5">
         <v>42661</v>
       </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
@@ -756,6 +767,9 @@
       <c r="E10" s="5">
         <v>42662</v>
       </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
@@ -767,6 +781,9 @@
       </c>
       <c r="E11" s="5">
         <v>42663</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">

--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>2016/10/21+2016/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,7 +622,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,7 +787,7 @@
         <v>42663</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -798,6 +802,9 @@
       </c>
       <c r="E13" t="s">
         <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -811,6 +818,9 @@
       <c r="E14" s="5">
         <v>42668</v>
       </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -823,6 +833,9 @@
       <c r="E15" s="5">
         <v>42669</v>
       </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
@@ -834,6 +847,9 @@
       </c>
       <c r="E16" s="5">
         <v>42670</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">

--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,10 +849,10 @@
         <v>42670</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>21</v>
@@ -863,8 +863,11 @@
       <c r="E17" s="5">
         <v>42671</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -878,7 +881,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" t="s">
         <v>23</v>
@@ -890,7 +893,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>24</v>
@@ -902,7 +905,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>25</v>
@@ -914,7 +917,7 @@
         <v>42677</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -926,7 +929,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>27</v>
@@ -938,7 +941,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>28</v>
@@ -950,7 +953,7 @@
         <v>42682</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>29</v>
@@ -962,7 +965,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>30</v>
@@ -974,7 +977,7 @@
         <v>42684</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" t="s">
         <v>31</v>
@@ -986,7 +989,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" t="s">
         <v>32</v>
@@ -998,7 +1001,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>42689</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" t="s">
         <v>34</v>
@@ -1024,7 +1027,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>35</v>
@@ -1036,7 +1039,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>36</v>
@@ -1048,7 +1051,7 @@
         <v>42692</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>37</v>
@@ -1060,7 +1063,7 @@
         <v>42695</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1076,11 @@
       <c r="E37" s="5">
         <v>42696</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>39</v>
@@ -1085,8 +1091,11 @@
       <c r="E38" s="5">
         <v>42697</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>40</v>
@@ -1097,8 +1106,11 @@
       <c r="E39" s="5">
         <v>42698</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>41</v>
@@ -1109,8 +1121,11 @@
       <c r="E40" s="5">
         <v>42699</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" t="s">
         <v>42</v>
@@ -1121,8 +1136,11 @@
       <c r="E41" s="5">
         <v>42702</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>43</v>
@@ -1133,8 +1151,11 @@
       <c r="E42" s="5">
         <v>42703</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1169,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>45</v>
@@ -1160,7 +1181,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" t="s">
         <v>46</v>
@@ -1172,7 +1193,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" t="s">
         <v>47</v>
@@ -1184,7 +1205,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" t="s">
         <v>48</v>

--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>2016/10/21+2016/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,6 +1026,9 @@
       <c r="E31" s="5">
         <v>42689</v>
       </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
@@ -1026,6 +1041,9 @@
       <c r="E32" s="5">
         <v>42690</v>
       </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
@@ -1038,6 +1056,9 @@
       <c r="E33" s="5">
         <v>42691</v>
       </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
@@ -1050,6 +1071,9 @@
       <c r="E34" s="5">
         <v>42692</v>
       </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
@@ -1062,6 +1086,9 @@
       <c r="E35" s="5">
         <v>42695</v>
       </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
@@ -1077,7 +1104,7 @@
         <v>42696</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">

--- a/w3/课程表.xlsx
+++ b/w3/课程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>计算机组成原理与体系结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>2016/10/21+2016/10/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -633,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,7 +880,7 @@
         <v>42671</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -891,6 +895,9 @@
       </c>
       <c r="E19" s="5">
         <v>42674</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
